--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="H2">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="I2">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="J2">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N2">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O2">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P2">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q2">
-        <v>50.06047604456889</v>
+        <v>16.27862360335311</v>
       </c>
       <c r="R2">
-        <v>450.54428440112</v>
+        <v>146.507612430178</v>
       </c>
       <c r="S2">
-        <v>0.01519679002025189</v>
+        <v>0.007033929911366916</v>
       </c>
       <c r="T2">
-        <v>0.01837077785720831</v>
+        <v>0.008274195922418116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="H3">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="I3">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="J3">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P3">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q3">
-        <v>679.1179207230881</v>
+        <v>326.8302294886091</v>
       </c>
       <c r="R3">
-        <v>6112.061286507793</v>
+        <v>2941.472065397481</v>
       </c>
       <c r="S3">
-        <v>0.2061588953135517</v>
+        <v>0.1412220703146737</v>
       </c>
       <c r="T3">
-        <v>0.2492170559733735</v>
+        <v>0.1661232188942925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="H4">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="I4">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="J4">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N4">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O4">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P4">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q4">
-        <v>3.24508085552</v>
+        <v>2.639092182500333</v>
       </c>
       <c r="R4">
-        <v>29.20572769968</v>
+        <v>23.751829642503</v>
       </c>
       <c r="S4">
-        <v>0.000985104742435365</v>
+        <v>0.00114034146213197</v>
       </c>
       <c r="T4">
-        <v>0.001190852829133355</v>
+        <v>0.00134141351918917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="H5">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="I5">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="J5">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N5">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O5">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P5">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q5">
-        <v>151.7782474262187</v>
+        <v>72.2202035117575</v>
       </c>
       <c r="R5">
-        <v>910.6694845573121</v>
+        <v>433.321221070545</v>
       </c>
       <c r="S5">
-        <v>0.04607511430224046</v>
+        <v>0.03120606889526702</v>
       </c>
       <c r="T5">
-        <v>0.03713221403835698</v>
+        <v>0.02447234393494638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="H6">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="I6">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="J6">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N6">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O6">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P6">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q6">
-        <v>2.674684240325333</v>
+        <v>3.013732875021</v>
       </c>
       <c r="R6">
-        <v>24.072158162928</v>
+        <v>27.123595875189</v>
       </c>
       <c r="S6">
-        <v>0.000811950224654542</v>
+        <v>0.001302222247470205</v>
       </c>
       <c r="T6">
-        <v>0.0009815334151726165</v>
+        <v>0.001531838125467792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>28.063475</v>
       </c>
       <c r="I7">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="J7">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N7">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O7">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P7">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q7">
-        <v>37.30499558897222</v>
+        <v>25.20650722742778</v>
       </c>
       <c r="R7">
-        <v>335.74496030075</v>
+        <v>226.85856504685</v>
       </c>
       <c r="S7">
-        <v>0.01132462632131799</v>
+        <v>0.01089163368281147</v>
       </c>
       <c r="T7">
-        <v>0.01368987754569097</v>
+        <v>0.01281211387408855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.063475</v>
       </c>
       <c r="I8">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="J8">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P8">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q8">
         <v>506.077709177425</v>
       </c>
       <c r="R8">
-        <v>4554.699382596825</v>
+        <v>4554.699382596826</v>
       </c>
       <c r="S8">
-        <v>0.1536293157390742</v>
+        <v>0.2186742087534906</v>
       </c>
       <c r="T8">
-        <v>0.1857161958569107</v>
+        <v>0.2572321972503881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.063475</v>
       </c>
       <c r="I9">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="J9">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N9">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O9">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P9">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q9">
-        <v>2.41822964075</v>
+        <v>4.086481621108333</v>
       </c>
       <c r="R9">
-        <v>21.76406676675</v>
+        <v>36.778334589975</v>
       </c>
       <c r="S9">
-        <v>0.0007340986537664754</v>
+        <v>0.001765752806093772</v>
       </c>
       <c r="T9">
-        <v>0.0008874218355091846</v>
+        <v>0.002077101258084645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.063475</v>
       </c>
       <c r="I10">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="J10">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N10">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O10">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P10">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q10">
-        <v>113.1049342338667</v>
+        <v>111.8288085124375</v>
       </c>
       <c r="R10">
-        <v>678.6296054032</v>
+        <v>670.9728510746251</v>
       </c>
       <c r="S10">
-        <v>0.03433510968365929</v>
+        <v>0.0483207929806874</v>
       </c>
       <c r="T10">
-        <v>0.0276708731190734</v>
+        <v>0.03789400930317362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>28.063475</v>
       </c>
       <c r="I11">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="J11">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N11">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O11">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P11">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q11">
-        <v>1.993170893908333</v>
+        <v>4.666591067325</v>
       </c>
       <c r="R11">
-        <v>17.938538045175</v>
+        <v>41.999319605925</v>
       </c>
       <c r="S11">
-        <v>0.0006050641532500742</v>
+        <v>0.002016415840330242</v>
       </c>
       <c r="T11">
-        <v>0.0007314373057668077</v>
+        <v>0.002371962748306304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="H12">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="I12">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="J12">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N12">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O12">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P12">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q12">
-        <v>18.41031320441444</v>
+        <v>13.73215917028178</v>
       </c>
       <c r="R12">
-        <v>165.69281883973</v>
+        <v>123.589432532536</v>
       </c>
       <c r="S12">
-        <v>0.005588793516974762</v>
+        <v>0.005933612539305868</v>
       </c>
       <c r="T12">
-        <v>0.006756063882788814</v>
+        <v>0.006979863788320396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="H13">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="I13">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="J13">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P13">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q13">
-        <v>249.753390521327</v>
+        <v>275.7041898845081</v>
       </c>
       <c r="R13">
-        <v>2247.780514691943</v>
+        <v>2481.337708960572</v>
       </c>
       <c r="S13">
-        <v>0.07581729405088923</v>
+        <v>0.119130707556772</v>
       </c>
       <c r="T13">
-        <v>0.09165242560352493</v>
+        <v>0.1401365704693911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="H14">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="I14">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="J14">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N14">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O14">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P14">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q14">
-        <v>1.19341563733</v>
+        <v>2.226259098937333</v>
       </c>
       <c r="R14">
-        <v>10.74074073597</v>
+        <v>20.036331890436</v>
       </c>
       <c r="S14">
-        <v>0.0003622835474285645</v>
+        <v>0.0009619578932485737</v>
       </c>
       <c r="T14">
-        <v>0.0004379497619077607</v>
+        <v>0.001131576256538004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="H15">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="I15">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="J15">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N15">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O15">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P15">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q15">
-        <v>55.81818818994134</v>
+        <v>60.92279999209001</v>
       </c>
       <c r="R15">
-        <v>334.909129139648</v>
+        <v>365.53679995254</v>
       </c>
       <c r="S15">
-        <v>0.01694465079553455</v>
+        <v>0.02632450479783296</v>
       </c>
       <c r="T15">
-        <v>0.01365579683682758</v>
+        <v>0.0206441361612011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="H16">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="I16">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="J16">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N16">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O16">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P16">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q16">
-        <v>0.9836457516596667</v>
+        <v>2.542294763052</v>
       </c>
       <c r="R16">
-        <v>8.852811764937</v>
+        <v>22.880652867468</v>
       </c>
       <c r="S16">
-        <v>0.0002986039910802355</v>
+        <v>0.001098515673871806</v>
       </c>
       <c r="T16">
-        <v>0.000360970150939803</v>
+        <v>0.001292212749344291</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="H17">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="I17">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="J17">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N17">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O17">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P17">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q17">
-        <v>68.46099092135333</v>
+        <v>26.39993336232466</v>
       </c>
       <c r="R17">
-        <v>410.76594552812</v>
+        <v>158.399600173948</v>
       </c>
       <c r="S17">
-        <v>0.0207826090723532</v>
+        <v>0.0114073084715282</v>
       </c>
       <c r="T17">
-        <v>0.01674883068738461</v>
+        <v>0.00894581041989579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="H18">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="I18">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="J18">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P18">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q18">
-        <v>928.7383876205821</v>
+        <v>530.038441180941</v>
       </c>
       <c r="R18">
-        <v>5572.430325723492</v>
+        <v>3180.230647085646</v>
       </c>
       <c r="S18">
-        <v>0.2819358379223507</v>
+        <v>0.2290275478099365</v>
       </c>
       <c r="T18">
-        <v>0.2272138015793741</v>
+        <v>0.1796074007076303</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="H19">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="I19">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="J19">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N19">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O19">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P19">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q19">
-        <v>4.43786133378</v>
+        <v>4.279959992483</v>
       </c>
       <c r="R19">
-        <v>26.62716800268</v>
+        <v>25.679759954898</v>
       </c>
       <c r="S19">
-        <v>0.00134719547549661</v>
+        <v>0.001849354057451073</v>
       </c>
       <c r="T19">
-        <v>0.001085713003759466</v>
+        <v>0.001450295732644988</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="H20">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="I20">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="J20">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N20">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O20">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P20">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q20">
-        <v>207.566728088128</v>
+        <v>117.1234501503675</v>
       </c>
       <c r="R20">
-        <v>830.2669123525121</v>
+        <v>468.49380060147</v>
       </c>
       <c r="S20">
-        <v>0.06301074682425477</v>
+        <v>0.05060858702854126</v>
       </c>
       <c r="T20">
-        <v>0.03385382866257557</v>
+        <v>0.0264587582195584</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="H21">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="I21">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="J21">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N21">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O21">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P21">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q21">
-        <v>3.657806476538</v>
+        <v>4.887535273928999</v>
       </c>
       <c r="R21">
-        <v>21.946838859228</v>
+        <v>29.325211643574</v>
       </c>
       <c r="S21">
-        <v>0.001110395292868895</v>
+        <v>0.00211188497220789</v>
       </c>
       <c r="T21">
-        <v>0.0008948743005068788</v>
+        <v>0.001656177058519371</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="H22">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="I22">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="J22">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N22">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O22">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P22">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q22">
-        <v>11.70414821515333</v>
+        <v>7.872655756321334</v>
       </c>
       <c r="R22">
-        <v>105.33733393638</v>
+        <v>70.85390180689201</v>
       </c>
       <c r="S22">
-        <v>0.003553012213332477</v>
+        <v>0.003401743916167282</v>
       </c>
       <c r="T22">
-        <v>0.004295091134910413</v>
+        <v>0.004001560435621708</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="H23">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="I23">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="J23">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>162.299907</v>
       </c>
       <c r="O23">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P23">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q23">
-        <v>158.777890818162</v>
+        <v>158.061390828726</v>
       </c>
       <c r="R23">
-        <v>1429.001017363458</v>
+        <v>1422.552517458534</v>
       </c>
       <c r="S23">
-        <v>0.0481999864418762</v>
+        <v>0.06829771188722752</v>
       </c>
       <c r="T23">
-        <v>0.0582669920729406</v>
+        <v>0.08034038671533573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="H24">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="I24">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="J24">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N24">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O24">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P24">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q24">
-        <v>0.7587004819800001</v>
+        <v>1.276315784938</v>
       </c>
       <c r="R24">
-        <v>6.828304337820001</v>
+        <v>11.486842064442</v>
       </c>
       <c r="S24">
-        <v>0.0002303176642317377</v>
+        <v>0.0005514910839375836</v>
       </c>
       <c r="T24">
-        <v>0.0002784216035461291</v>
+        <v>0.0006487334015927859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="H25">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="I25">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="J25">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N25">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O25">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P25">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q25">
-        <v>35.485781280448</v>
+        <v>34.927080738105</v>
       </c>
       <c r="R25">
-        <v>212.914687682688</v>
+        <v>209.56248442863</v>
       </c>
       <c r="S25">
-        <v>0.0107723699299911</v>
+        <v>0.01509185566953458</v>
       </c>
       <c r="T25">
-        <v>0.008681518255535601</v>
+        <v>0.01183529664697488</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="H26">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="I26">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="J26">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N26">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O26">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P26">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q26">
-        <v>0.625341651758</v>
+        <v>1.457499236094</v>
       </c>
       <c r="R26">
-        <v>5.628074865822</v>
+        <v>13.117493124846</v>
       </c>
       <c r="S26">
-        <v>0.0001898341071352001</v>
+        <v>0.0006297797481136118</v>
       </c>
       <c r="T26">
-        <v>0.000229482687281642</v>
+        <v>0.000740826407076113</v>
       </c>
     </row>
   </sheetData>
